--- a/files/GDS-Leave-orders.xlsx
+++ b/files/GDS-Leave-orders.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mohankumar\projects-important\post-office-management-api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633F99AF-64E7-493E-8A1D-1736483EA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9D92FF-4E42-4E32-90FD-C316058DE859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GDS Leave orders from Jan 2024" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'GDS Leave orders from Jan 2024'!$D$1:$D$283</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="395">
   <si>
     <t>SL.No</t>
   </si>
@@ -283,9 +286,6 @@
     <t>Vacant UPTO 06.01.2024</t>
   </si>
   <si>
-    <t>Jariusilampatti BO</t>
-  </si>
-  <si>
     <t>Prabhavathi</t>
   </si>
   <si>
@@ -367,9 +367,6 @@
     <t>Vacant from 08.01.23</t>
   </si>
   <si>
-    <t>Kappalur BO</t>
-  </si>
-  <si>
     <t>G Divyarama</t>
   </si>
   <si>
@@ -880,9 +877,6 @@
     <t>Urappanur</t>
   </si>
   <si>
-    <t>Urappanur BO</t>
-  </si>
-  <si>
     <t>R Dinesh Babu</t>
   </si>
   <si>
@@ -925,9 +919,6 @@
     <t>Ramasamy</t>
   </si>
   <si>
-    <t>Velambur BO</t>
-  </si>
-  <si>
     <t>Joined on 04.01.2024</t>
   </si>
   <si>
@@ -1214,6 +1205,9 @@
   </si>
   <si>
     <t>sendToHoOn</t>
+  </si>
+  <si>
+    <t>Jariusilampatti</t>
   </si>
 </sst>
 </file>
@@ -2055,10 +2049,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C260" workbookViewId="0">
-      <selection activeCell="K271" sqref="K271"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2081,46 +2076,46 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" t="s">
         <v>385</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>386</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I1" t="s">
         <v>387</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>388</v>
       </c>
-      <c r="F1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>390</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
+        <v>391</v>
+      </c>
+      <c r="M1" t="s">
+        <v>392</v>
+      </c>
+      <c r="N1" t="s">
         <v>393</v>
       </c>
-      <c r="I1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J1" t="s">
-        <v>392</v>
-      </c>
-      <c r="K1" t="s">
-        <v>394</v>
-      </c>
-      <c r="L1" t="s">
-        <v>395</v>
-      </c>
-      <c r="M1" t="s">
-        <v>396</v>
-      </c>
-      <c r="N1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2164,7 +2159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2208,7 +2203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2225,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2263,7 +2258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2301,7 +2296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2318,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2356,7 +2351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2394,7 +2389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2432,7 +2427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2449,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2466,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2483,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2524,7 +2519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2562,7 +2557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2600,7 +2595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2638,7 +2633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2676,7 +2671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2714,7 +2709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2752,7 +2747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2769,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2807,7 +2802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2845,7 +2840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2883,7 +2878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2900,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2938,7 +2933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2976,7 +2971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3014,7 +3009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3052,7 +3047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3090,7 +3085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3128,7 +3123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3166,7 +3161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3204,7 +3199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3242,7 +3237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3280,7 +3275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3318,7 +3313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3335,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3352,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3369,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3413,7 +3408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3451,7 +3446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3489,7 +3484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3527,7 +3522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3578,7 +3573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3589,7 +3584,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>394</v>
       </c>
       <c r="E47" s="1">
         <v>45292</v>
@@ -3601,7 +3596,7 @@
         <v>6</v>
       </c>
       <c r="H47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I47">
         <v>3868258552</v>
@@ -3616,18 +3611,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
         <v>89</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>90</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -3639,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I48">
         <v>4579760358</v>
@@ -3654,18 +3649,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
         <v>89</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>90</v>
       </c>
       <c r="E49" t="s">
         <v>45</v>
@@ -3677,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49">
         <v>4778808035</v>
@@ -3692,18 +3687,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E50" s="1">
         <v>45444</v>
@@ -3715,7 +3710,7 @@
         <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I50">
         <v>2038468883</v>
@@ -3730,18 +3725,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
         <v>95</v>
-      </c>
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s">
-        <v>96</v>
       </c>
       <c r="E51" t="s">
         <v>60</v>
@@ -3753,13 +3748,13 @@
         <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I51">
         <v>10019409708</v>
       </c>
       <c r="J51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K51" t="s">
         <v>6</v>
@@ -3768,35 +3763,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
         <v>95</v>
-      </c>
-      <c r="C53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" t="s">
-        <v>96</v>
       </c>
       <c r="E53" s="1">
         <v>45323</v>
@@ -3808,33 +3803,33 @@
         <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I53">
         <v>10019409708</v>
       </c>
       <c r="J53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N53" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
         <v>95</v>
-      </c>
-      <c r="C54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" t="s">
-        <v>96</v>
       </c>
       <c r="E54" s="1">
         <v>45536</v>
@@ -3846,50 +3841,50 @@
         <v>5</v>
       </c>
       <c r="H54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I54">
         <v>10019409708</v>
       </c>
       <c r="J54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N54" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
         <v>101</v>
       </c>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>102</v>
-      </c>
       <c r="G55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -3901,7 +3896,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I56">
         <v>10033869013</v>
@@ -3916,18 +3911,18 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
         <v>105</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>106</v>
-      </c>
-      <c r="D57" t="s">
-        <v>107</v>
       </c>
       <c r="E57" s="1">
         <v>45292</v>
@@ -3939,7 +3934,7 @@
         <v>16</v>
       </c>
       <c r="H57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I57">
         <v>10001769756</v>
@@ -3954,18 +3949,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
         <v>105</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>106</v>
-      </c>
-      <c r="D58" t="s">
-        <v>107</v>
       </c>
       <c r="E58" t="s">
         <v>60</v>
@@ -3977,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I58">
         <v>831739838</v>
@@ -3992,21 +3987,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" t="s">
         <v>105</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>106</v>
       </c>
-      <c r="D59" t="s">
-        <v>107</v>
-      </c>
       <c r="E59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -4030,18 +4025,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E60" s="1">
         <v>45292</v>
@@ -4053,7 +4048,7 @@
         <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I60">
         <v>4564281974</v>
@@ -4068,18 +4063,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E61" t="s">
         <v>42</v>
@@ -4106,21 +4101,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -4144,18 +4139,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E63" s="1">
         <v>45292</v>
@@ -4179,7 +4174,7 @@
         <v>6</v>
       </c>
       <c r="M63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N63" t="s">
         <v>8</v>
@@ -4190,13 +4185,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E64" s="1">
         <v>45505</v>
@@ -4228,13 +4223,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E65" t="s">
         <v>61</v>
@@ -4246,7 +4241,7 @@
         <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I65">
         <v>4579760358</v>
@@ -4261,30 +4256,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
         <v>116</v>
-      </c>
-      <c r="C66" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" t="s">
-        <v>117</v>
-      </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66" t="s">
-        <v>118</v>
       </c>
       <c r="I66">
         <v>4814002403</v>
@@ -4299,18 +4294,18 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E67" s="1">
         <v>45292</v>
@@ -4322,71 +4317,71 @@
         <v>16</v>
       </c>
       <c r="H67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I67">
         <v>4795777369</v>
       </c>
       <c r="J67" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K67" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E68" t="s">
         <v>60</v>
       </c>
       <c r="F68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G68">
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I68">
         <v>10015943102</v>
       </c>
       <c r="J68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E69" t="s">
         <v>8</v>
@@ -4398,50 +4393,50 @@
         <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I69">
         <v>10008239243</v>
       </c>
       <c r="J69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E71" s="1">
         <v>45352</v>
@@ -4453,7 +4448,7 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I71">
         <v>1893246162</v>
@@ -4468,18 +4463,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E72" t="s">
         <v>23</v>
@@ -4491,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I72">
         <v>1893246162</v>
@@ -4506,64 +4501,64 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>130</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
         <v>131</v>
-      </c>
-      <c r="C75" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s">
-        <v>132</v>
-      </c>
-      <c r="E75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
-        <v>133</v>
       </c>
       <c r="I75">
         <v>4115088489</v>
@@ -4578,18 +4573,18 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E76" s="1">
         <v>45597</v>
@@ -4616,18 +4611,18 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
@@ -4639,7 +4634,7 @@
         <v>2</v>
       </c>
       <c r="H77" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I77">
         <v>3868258552</v>
@@ -4654,18 +4649,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E78" t="s">
         <v>46</v>
@@ -4677,7 +4672,7 @@
         <v>2</v>
       </c>
       <c r="H78" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I78">
         <v>3868258552</v>
@@ -4692,52 +4687,52 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E81" s="1">
         <v>45292</v>
@@ -4749,7 +4744,7 @@
         <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I81">
         <v>3698073844</v>
@@ -4764,18 +4759,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E82" t="s">
         <v>42</v>
@@ -4802,18 +4797,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E83" t="s">
         <v>45</v>
@@ -4825,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I83">
         <v>3868258552</v>
@@ -4840,18 +4835,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E84" t="s">
         <v>42</v>
@@ -4863,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I84">
         <v>10007987611</v>
@@ -4878,69 +4873,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
       </c>
       <c r="D87" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E88" s="1">
         <v>45292</v>
@@ -4952,7 +4947,7 @@
         <v>10</v>
       </c>
       <c r="H88" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I88">
         <v>3408128574</v>
@@ -4967,72 +4962,72 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="M89" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E92" s="1">
         <v>45292</v>
@@ -5056,27 +5051,27 @@
         <v>6</v>
       </c>
       <c r="L92" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M92" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N92" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E93" s="1">
         <v>45352</v>
@@ -5088,7 +5083,7 @@
         <v>3</v>
       </c>
       <c r="H93" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I93">
         <v>4106180475</v>
@@ -5100,27 +5095,27 @@
         <v>6</v>
       </c>
       <c r="L93" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M93" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N93" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E94" s="1">
         <v>45505</v>
@@ -5132,7 +5127,7 @@
         <v>24</v>
       </c>
       <c r="H94" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I94">
         <v>4106180475</v>
@@ -5144,24 +5139,24 @@
         <v>41</v>
       </c>
       <c r="L94" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N94" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E95" t="s">
         <v>60</v>
@@ -5173,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I95">
         <v>6339694718</v>
@@ -5188,86 +5183,86 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
       </c>
       <c r="D97" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E100" s="1">
         <v>45536</v>
@@ -5288,61 +5283,61 @@
         <v>18</v>
       </c>
       <c r="K100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N100" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F103" t="s">
         <v>61</v>
@@ -5351,7 +5346,7 @@
         <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I103">
         <v>3408128574</v>
@@ -5363,27 +5358,27 @@
         <v>6</v>
       </c>
       <c r="L103" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M103" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N103" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E104" t="s">
         <v>23</v>
@@ -5395,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I104">
         <v>1893257861</v>
@@ -5404,24 +5399,24 @@
         <v>18</v>
       </c>
       <c r="K104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N104" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E105" s="1">
         <v>45323</v>
@@ -5433,7 +5428,7 @@
         <v>2</v>
       </c>
       <c r="H105" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I105">
         <v>4579760358</v>
@@ -5442,36 +5437,36 @@
         <v>18</v>
       </c>
       <c r="K105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N105" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C106" t="s">
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E106" t="s">
         <v>60</v>
       </c>
       <c r="F106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G106">
         <v>2</v>
       </c>
       <c r="H106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I106">
         <v>4579760358</v>
@@ -5480,24 +5475,24 @@
         <v>18</v>
       </c>
       <c r="K106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N106" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E107" s="1">
         <v>45413</v>
@@ -5509,7 +5504,7 @@
         <v>2</v>
       </c>
       <c r="H107" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I107">
         <v>3374475566</v>
@@ -5518,41 +5513,41 @@
         <v>18</v>
       </c>
       <c r="K107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N107" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E109" t="s">
         <v>28</v>
@@ -5564,7 +5559,7 @@
         <v>3</v>
       </c>
       <c r="H109" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I109">
         <v>10001769756</v>
@@ -5585,18 +5580,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E110" t="s">
         <v>23</v>
@@ -5608,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I110">
         <v>10001769756</v>
@@ -5629,18 +5624,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
       </c>
       <c r="D111" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E111" s="1">
         <v>45323</v>
@@ -5667,18 +5662,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E112" t="s">
         <v>42</v>
@@ -5690,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I112">
         <v>831739838</v>
@@ -5705,18 +5700,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
       </c>
       <c r="D113" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E113" t="s">
         <v>16</v>
@@ -5743,18 +5738,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
       </c>
       <c r="D114" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E114" t="s">
         <v>9</v>
@@ -5781,18 +5776,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C115" t="s">
         <v>2</v>
       </c>
       <c r="D115" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E115" t="s">
         <v>22</v>
@@ -5819,18 +5814,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E116" s="1">
         <v>45413</v>
@@ -5842,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I116">
         <v>3467051905</v>
@@ -5854,27 +5849,27 @@
         <v>6</v>
       </c>
       <c r="L116" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M116" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N116" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C117" t="s">
         <v>13</v>
       </c>
       <c r="D117" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E117" s="1">
         <v>45505</v>
@@ -5886,7 +5881,7 @@
         <v>24</v>
       </c>
       <c r="H117" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I117">
         <v>3467051905</v>
@@ -5901,30 +5896,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E118" s="1">
         <v>45413</v>
       </c>
       <c r="F118" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G118">
         <v>10</v>
       </c>
       <c r="H118" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I118">
         <v>831741578</v>
@@ -5933,24 +5928,24 @@
         <v>18</v>
       </c>
       <c r="K118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N118" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C119" t="s">
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E119" t="s">
         <v>42</v>
@@ -5962,7 +5957,7 @@
         <v>16</v>
       </c>
       <c r="H119" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I119">
         <v>831741578</v>
@@ -5977,35 +5972,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C120" t="s">
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
       </c>
       <c r="D121" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E121" s="1">
         <v>45292</v>
@@ -6017,7 +6012,7 @@
         <v>2</v>
       </c>
       <c r="H121" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I121">
         <v>4106220072</v>
@@ -6032,18 +6027,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
       </c>
       <c r="D122" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E122" s="1">
         <v>45505</v>
@@ -6055,7 +6050,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I122">
         <v>4106220072</v>
@@ -6070,18 +6065,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
       </c>
       <c r="D123" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E123" s="1">
         <v>45566</v>
@@ -6093,7 +6088,7 @@
         <v>3</v>
       </c>
       <c r="H123" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I123">
         <v>4106220072</v>
@@ -6108,18 +6103,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
       </c>
       <c r="D124" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E124" t="s">
         <v>40</v>
@@ -6131,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I124">
         <v>4106220072</v>
@@ -6146,18 +6141,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C125" t="s">
         <v>13</v>
       </c>
       <c r="D125" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E125" t="s">
         <v>42</v>
@@ -6169,7 +6164,7 @@
         <v>9</v>
       </c>
       <c r="H125" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I125">
         <v>4106220072</v>
@@ -6184,18 +6179,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
       </c>
       <c r="D126" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E126" t="s">
         <v>45</v>
@@ -6207,7 +6202,7 @@
         <v>3</v>
       </c>
       <c r="H126" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I126">
         <v>4106220072</v>
@@ -6222,24 +6217,24 @@
         <v>6</v>
       </c>
       <c r="M126" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N126" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C127" t="s">
         <v>13</v>
       </c>
       <c r="D127" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E127" t="s">
         <v>46</v>
@@ -6251,7 +6246,7 @@
         <v>2</v>
       </c>
       <c r="H127" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I127">
         <v>4106220072</v>
@@ -6266,18 +6261,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C128" t="s">
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E128" s="1">
         <v>45292</v>
@@ -6289,7 +6284,7 @@
         <v>1</v>
       </c>
       <c r="H128" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I128">
         <v>4444631578</v>
@@ -6301,18 +6296,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C129" t="s">
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E129" t="s">
         <v>42</v>
@@ -6324,7 +6319,7 @@
         <v>5</v>
       </c>
       <c r="H129" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I129">
         <v>4444631578</v>
@@ -6339,35 +6334,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
       </c>
       <c r="D130" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C131" t="s">
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E131" s="1">
         <v>45292</v>
@@ -6379,13 +6374,13 @@
         <v>29</v>
       </c>
       <c r="H131" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I131">
         <v>1893169966</v>
       </c>
       <c r="J131" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K131" t="s">
         <v>6</v>
@@ -6394,18 +6389,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C132" t="s">
         <v>13</v>
       </c>
       <c r="D132" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E132" s="1">
         <v>45292</v>
@@ -6417,7 +6412,7 @@
         <v>16</v>
       </c>
       <c r="H132" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I132">
         <v>10008239243</v>
@@ -6435,30 +6430,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C133" t="s">
         <v>13</v>
       </c>
       <c r="D133" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E133" t="s">
         <v>60</v>
       </c>
       <c r="F133" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G133">
         <v>2</v>
       </c>
       <c r="H133" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I133">
         <v>4120928022</v>
@@ -6473,18 +6468,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C134" t="s">
         <v>13</v>
       </c>
       <c r="D134" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E134" t="s">
         <v>8</v>
@@ -6496,7 +6491,7 @@
         <v>13</v>
       </c>
       <c r="H134" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I134">
         <v>4795777369</v>
@@ -6511,18 +6506,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E135" s="1">
         <v>45597</v>
@@ -6534,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I135">
         <v>3463732549</v>
@@ -6543,41 +6538,41 @@
         <v>18</v>
       </c>
       <c r="K135" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N135" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C136" t="s">
         <v>13</v>
       </c>
       <c r="D136" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G136">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C137" t="s">
         <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E137" t="s">
         <v>42</v>
@@ -6589,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I137">
         <v>4579760358</v>
@@ -6604,52 +6599,52 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
       </c>
       <c r="D138" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G138">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G139">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C140" t="s">
         <v>13</v>
       </c>
       <c r="D140" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
@@ -6661,13 +6656,13 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I140">
         <v>10015943102</v>
       </c>
       <c r="J140" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K140" t="s">
         <v>19</v>
@@ -6676,18 +6671,18 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C141" t="s">
         <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E141" t="s">
         <v>42</v>
@@ -6714,18 +6709,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C142" t="s">
         <v>2</v>
       </c>
       <c r="D142" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E142" t="s">
         <v>9</v>
@@ -6752,18 +6747,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C143" t="s">
         <v>13</v>
       </c>
       <c r="D143" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E143" s="1">
         <v>45536</v>
@@ -6775,7 +6770,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I143">
         <v>831625845</v>
@@ -6784,24 +6779,24 @@
         <v>18</v>
       </c>
       <c r="K143" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N143" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C144" t="s">
         <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E144" s="1">
         <v>45292</v>
@@ -6813,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I144">
         <v>3463732549</v>
@@ -6822,24 +6817,24 @@
         <v>18</v>
       </c>
       <c r="K144" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N144" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C145" t="s">
         <v>13</v>
       </c>
       <c r="D145" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E145" s="1">
         <v>45292</v>
@@ -6851,7 +6846,7 @@
         <v>11</v>
       </c>
       <c r="H145" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I145">
         <v>4107003247</v>
@@ -6866,18 +6861,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C146" t="s">
         <v>13</v>
       </c>
       <c r="D146" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E146" s="1">
         <v>45627</v>
@@ -6904,18 +6899,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C147" t="s">
         <v>13</v>
       </c>
       <c r="D147" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E147" t="s">
         <v>40</v>
@@ -6927,7 +6922,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I147">
         <v>4107003247</v>
@@ -6942,18 +6937,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C148" t="s">
         <v>13</v>
       </c>
       <c r="D148" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E148" t="s">
         <v>42</v>
@@ -6965,7 +6960,7 @@
         <v>16</v>
       </c>
       <c r="H148" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I148">
         <v>4107277792</v>
@@ -6980,18 +6975,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E149" s="1">
         <v>45292</v>
@@ -7003,7 +6998,7 @@
         <v>1</v>
       </c>
       <c r="H149" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I149">
         <v>4814002403</v>
@@ -7012,24 +7007,24 @@
         <v>18</v>
       </c>
       <c r="K149" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N149" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C150" t="s">
         <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E150" s="1">
         <v>45383</v>
@@ -7041,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I150">
         <v>4814002403</v>
@@ -7050,24 +7045,24 @@
         <v>18</v>
       </c>
       <c r="K150" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N150" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C151" t="s">
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E151" s="1">
         <v>45323</v>
@@ -7079,7 +7074,7 @@
         <v>2</v>
       </c>
       <c r="H151" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I151">
         <v>4814002403</v>
@@ -7091,27 +7086,27 @@
         <v>6</v>
       </c>
       <c r="L151" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M151" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N151" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C152" t="s">
         <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E152" s="1">
         <v>45413</v>
@@ -7123,7 +7118,7 @@
         <v>1</v>
       </c>
       <c r="H152" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I152">
         <v>4814002403</v>
@@ -7135,27 +7130,27 @@
         <v>6</v>
       </c>
       <c r="L152" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M152" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N152" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C153" t="s">
         <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E153" s="1">
         <v>45505</v>
@@ -7167,84 +7162,84 @@
         <v>22</v>
       </c>
       <c r="H153" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I153">
         <v>4814002403</v>
       </c>
       <c r="J153" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K153" t="s">
         <v>41</v>
       </c>
       <c r="M153" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N153" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C154" t="s">
         <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C155" t="s">
         <v>13</v>
       </c>
       <c r="D155" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C156" t="s">
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G156">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C157" t="s">
         <v>13</v>
       </c>
       <c r="D157" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E157" s="1">
         <v>45292</v>
@@ -7256,7 +7251,7 @@
         <v>29</v>
       </c>
       <c r="H157" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I157">
         <v>3937335214</v>
@@ -7274,18 +7269,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C158" t="s">
         <v>13</v>
       </c>
       <c r="D158" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E158" t="s">
         <v>46</v>
@@ -7312,18 +7307,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C159" t="s">
         <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E159" s="1">
         <v>45505</v>
@@ -7344,24 +7339,24 @@
         <v>18</v>
       </c>
       <c r="K159" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N159" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C160" t="s">
         <v>2</v>
       </c>
       <c r="D160" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E160" t="s">
         <v>22</v>
@@ -7382,24 +7377,24 @@
         <v>18</v>
       </c>
       <c r="K160" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N160" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C161" t="s">
         <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E161" t="s">
         <v>46</v>
@@ -7426,18 +7421,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C162" t="s">
         <v>13</v>
       </c>
       <c r="D162" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E162" t="s">
         <v>61</v>
@@ -7449,7 +7444,7 @@
         <v>4</v>
       </c>
       <c r="H162" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I162">
         <v>10034518113</v>
@@ -7458,24 +7453,24 @@
         <v>18</v>
       </c>
       <c r="K162" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N162" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C163" t="s">
         <v>13</v>
       </c>
       <c r="D163" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E163" t="s">
         <v>23</v>
@@ -7487,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I163">
         <v>10034518113</v>
@@ -7496,24 +7491,24 @@
         <v>18</v>
       </c>
       <c r="K163" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N163" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C164" t="s">
         <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E164" t="s">
         <v>23</v>
@@ -7525,7 +7520,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I164">
         <v>4115088489</v>
@@ -7540,18 +7535,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C165" t="s">
         <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -7560,18 +7555,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C166" t="s">
         <v>13</v>
       </c>
       <c r="D166" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E166" s="1">
         <v>45536</v>
@@ -7583,7 +7578,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I166">
         <v>10032229194</v>
@@ -7598,21 +7593,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C167" t="s">
         <v>13</v>
       </c>
       <c r="D167" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E167" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F167" t="s">
         <v>16</v>
@@ -7621,7 +7616,7 @@
         <v>5</v>
       </c>
       <c r="H167" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I167">
         <v>4107003247</v>
@@ -7636,18 +7631,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C168" t="s">
         <v>13</v>
       </c>
       <c r="D168" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E168" t="s">
         <v>9</v>
@@ -7659,7 +7654,7 @@
         <v>3</v>
       </c>
       <c r="H168" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I168">
         <v>4107003247</v>
@@ -7674,18 +7669,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C169" t="s">
         <v>2</v>
       </c>
       <c r="D169" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E169" s="1">
         <v>45597</v>
@@ -7697,7 +7692,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I169">
         <v>3868258552</v>
@@ -7706,24 +7701,24 @@
         <v>18</v>
       </c>
       <c r="K169" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N169" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C170" t="s">
         <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E170" t="s">
         <v>28</v>
@@ -7735,7 +7730,7 @@
         <v>2</v>
       </c>
       <c r="H170" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I170">
         <v>3868258552</v>
@@ -7744,24 +7739,24 @@
         <v>18</v>
       </c>
       <c r="K170" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N170" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C171" t="s">
         <v>13</v>
       </c>
       <c r="D171" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E171" t="s">
         <v>28</v>
@@ -7773,7 +7768,7 @@
         <v>3</v>
       </c>
       <c r="H171" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I171">
         <v>3408128574</v>
@@ -7788,35 +7783,35 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C172" t="s">
         <v>2</v>
       </c>
       <c r="D172" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C173" t="s">
         <v>13</v>
       </c>
       <c r="D173" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E173" s="1">
         <v>45505</v>
@@ -7828,7 +7823,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I173">
         <v>4629328590</v>
@@ -7837,24 +7832,24 @@
         <v>18</v>
       </c>
       <c r="K173" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N173" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C174" t="s">
         <v>13</v>
       </c>
       <c r="D174" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E174" t="s">
         <v>46</v>
@@ -7866,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="H174" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I174">
         <v>4629328590</v>
@@ -7875,24 +7870,24 @@
         <v>18</v>
       </c>
       <c r="K174" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N174" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C175" t="s">
         <v>2</v>
       </c>
       <c r="D175" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E175" s="1">
         <v>45536</v>
@@ -7904,7 +7899,7 @@
         <v>3</v>
       </c>
       <c r="H175" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I175">
         <v>4579760358</v>
@@ -7919,18 +7914,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C176" t="s">
         <v>2</v>
       </c>
       <c r="D176" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E176" t="s">
         <v>42</v>
@@ -7951,24 +7946,24 @@
         <v>18</v>
       </c>
       <c r="K176" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N176" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C177" t="s">
         <v>13</v>
       </c>
       <c r="D177" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E177" s="1">
         <v>45597</v>
@@ -7980,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I177">
         <v>10010019262</v>
@@ -7995,18 +7990,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C178" t="s">
         <v>13</v>
       </c>
       <c r="D178" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E178" t="s">
         <v>42</v>
@@ -8018,7 +8013,7 @@
         <v>2</v>
       </c>
       <c r="H178" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I178">
         <v>10009879866</v>
@@ -8027,58 +8022,58 @@
         <v>18</v>
       </c>
       <c r="K178" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N178" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C179" t="s">
         <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G179">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C180" t="s">
         <v>13</v>
       </c>
       <c r="D180" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G180">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C181" t="s">
         <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E181" t="s">
         <v>42</v>
@@ -8090,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I181">
         <v>3030608765</v>
@@ -8099,24 +8094,24 @@
         <v>18</v>
       </c>
       <c r="K181" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N181" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C182" t="s">
         <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E182" t="s">
         <v>45</v>
@@ -8128,7 +8123,7 @@
         <v>3</v>
       </c>
       <c r="H182" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I182">
         <v>1209692546</v>
@@ -8137,24 +8132,24 @@
         <v>18</v>
       </c>
       <c r="K182" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N182" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C183" t="s">
         <v>13</v>
       </c>
       <c r="D183" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E183" s="1">
         <v>45597</v>
@@ -8166,7 +8161,7 @@
         <v>2</v>
       </c>
       <c r="H183" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I183">
         <v>3030608765</v>
@@ -8178,27 +8173,27 @@
         <v>6</v>
       </c>
       <c r="L183" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M183" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N183" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C184" t="s">
         <v>13</v>
       </c>
       <c r="D184" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E184" t="s">
         <v>40</v>
@@ -8210,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I184">
         <v>3030608765</v>
@@ -8222,27 +8217,27 @@
         <v>6</v>
       </c>
       <c r="L184" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M184" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N184" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C185" t="s">
         <v>13</v>
       </c>
       <c r="D185" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E185" t="s">
         <v>61</v>
@@ -8254,7 +8249,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I185">
         <v>1209692546</v>
@@ -8269,24 +8264,24 @@
         <v>6</v>
       </c>
       <c r="M185" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N185" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C186" t="s">
         <v>13</v>
       </c>
       <c r="D186" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E186" t="s">
         <v>28</v>
@@ -8298,7 +8293,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I186">
         <v>1209692546</v>
@@ -8307,24 +8302,24 @@
         <v>18</v>
       </c>
       <c r="K186" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N186" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C187" t="s">
         <v>13</v>
       </c>
       <c r="D187" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E187" t="s">
         <v>22</v>
@@ -8336,7 +8331,7 @@
         <v>1</v>
       </c>
       <c r="H187" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I187">
         <v>1209692546</v>
@@ -8351,24 +8346,24 @@
         <v>2</v>
       </c>
       <c r="M187" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N187" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C188" t="s">
         <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E188" s="1">
         <v>45566</v>
@@ -8389,24 +8384,24 @@
         <v>18</v>
       </c>
       <c r="K188" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N188" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C189" t="s">
         <v>2</v>
       </c>
       <c r="D189" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E189" t="s">
         <v>45</v>
@@ -8427,24 +8422,24 @@
         <v>18</v>
       </c>
       <c r="K189" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N189" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C190" t="s">
         <v>13</v>
       </c>
       <c r="D190" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E190" t="s">
         <v>46</v>
@@ -8456,7 +8451,7 @@
         <v>2</v>
       </c>
       <c r="H190" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I190">
         <v>4108788303</v>
@@ -8465,24 +8460,24 @@
         <v>18</v>
       </c>
       <c r="K190" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N190" s="1">
         <v>45628</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C191" t="s">
         <v>2</v>
       </c>
       <c r="D191" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E191" t="s">
         <v>23</v>
@@ -8509,52 +8504,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C192" t="s">
         <v>2</v>
       </c>
       <c r="D192" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G192">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C193" t="s">
         <v>13</v>
       </c>
       <c r="D193" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G193">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C194" t="s">
         <v>2</v>
       </c>
       <c r="D194" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -8565,13 +8560,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C195" t="s">
         <v>13</v>
       </c>
       <c r="D195" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E195" s="1">
         <v>45292</v>
@@ -8583,7 +8578,7 @@
         <v>6</v>
       </c>
       <c r="H195" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I195">
         <v>831704364</v>
@@ -8603,13 +8598,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C196" t="s">
         <v>13</v>
       </c>
       <c r="D196" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E196" s="1">
         <v>45505</v>
@@ -8621,7 +8616,7 @@
         <v>3</v>
       </c>
       <c r="H196" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I196">
         <v>10015943102</v>
@@ -8641,13 +8636,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C197" t="s">
         <v>13</v>
       </c>
       <c r="D197" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E197" s="1">
         <v>45597</v>
@@ -8659,7 +8654,7 @@
         <v>21</v>
       </c>
       <c r="H197" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I197">
         <v>831704364</v>
@@ -8677,35 +8672,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C198" t="s">
         <v>2</v>
       </c>
       <c r="D198" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G198">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C199" t="s">
         <v>13</v>
       </c>
       <c r="D199" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E199" s="1">
         <v>45292</v>
@@ -8717,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="H199" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I199">
         <v>2038468883</v>
@@ -8732,18 +8727,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C200" t="s">
         <v>13</v>
       </c>
       <c r="D200" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E200" s="1">
         <v>45383</v>
@@ -8755,7 +8750,7 @@
         <v>3</v>
       </c>
       <c r="H200" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I200">
         <v>3651443202</v>
@@ -8770,18 +8765,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C201" t="s">
         <v>13</v>
       </c>
       <c r="D201" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E201" s="1">
         <v>45597</v>
@@ -8793,7 +8788,7 @@
         <v>1</v>
       </c>
       <c r="H201" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I201">
         <v>3651443202</v>
@@ -8808,18 +8803,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C202" t="s">
         <v>13</v>
       </c>
       <c r="D202" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E202" t="s">
         <v>42</v>
@@ -8831,7 +8826,7 @@
         <v>16</v>
       </c>
       <c r="H202" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I202">
         <v>2038468883</v>
@@ -8846,18 +8841,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C203" t="s">
         <v>2</v>
       </c>
       <c r="D203" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E203" s="1">
         <v>45292</v>
@@ -8869,7 +8864,7 @@
         <v>4</v>
       </c>
       <c r="H203" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I203">
         <v>4115088489</v>
@@ -8878,92 +8873,92 @@
         <v>18</v>
       </c>
       <c r="K203" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N203" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C204" t="s">
         <v>13</v>
       </c>
       <c r="D204" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G204">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C205" t="s">
         <v>2</v>
       </c>
       <c r="D205" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G205">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C206" t="s">
         <v>13</v>
       </c>
       <c r="D206" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G206">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C207" t="s">
         <v>2</v>
       </c>
       <c r="D207" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G207">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C208" t="s">
         <v>13</v>
       </c>
       <c r="D208" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -8974,13 +8969,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C209" t="s">
         <v>2</v>
       </c>
       <c r="D209" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E209" s="1">
         <v>45292</v>
@@ -8992,7 +8987,7 @@
         <v>3</v>
       </c>
       <c r="H209" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I209">
         <v>4778808035</v>
@@ -9004,24 +8999,24 @@
         <v>41</v>
       </c>
       <c r="M209" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N209" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C210" t="s">
         <v>2</v>
       </c>
       <c r="D210" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E210" s="1">
         <v>45413</v>
@@ -9033,33 +9028,33 @@
         <v>19</v>
       </c>
       <c r="H210" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I210">
         <v>4778808035</v>
       </c>
       <c r="J210" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K210" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N210" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C211" t="s">
         <v>2</v>
       </c>
       <c r="D211" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E211" t="s">
         <v>46</v>
@@ -9071,7 +9066,7 @@
         <v>2</v>
       </c>
       <c r="H211" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I211">
         <v>4778808035</v>
@@ -9086,18 +9081,18 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C212" t="s">
         <v>13</v>
       </c>
       <c r="D212" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E212" s="1">
         <v>45292</v>
@@ -9109,7 +9104,7 @@
         <v>1</v>
       </c>
       <c r="H212" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I212">
         <v>10016472295</v>
@@ -9118,24 +9113,24 @@
         <v>18</v>
       </c>
       <c r="K212" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N212" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C213" t="s">
         <v>13</v>
       </c>
       <c r="D213" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E213" s="1">
         <v>45352</v>
@@ -9147,7 +9142,7 @@
         <v>9</v>
       </c>
       <c r="H213" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I213">
         <v>10016472295</v>
@@ -9156,24 +9151,24 @@
         <v>18</v>
       </c>
       <c r="K213" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N213" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C214" t="s">
         <v>13</v>
       </c>
       <c r="D214" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E214" s="1">
         <v>45627</v>
@@ -9185,7 +9180,7 @@
         <v>2</v>
       </c>
       <c r="H214" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I214">
         <v>10016472295</v>
@@ -9200,18 +9195,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C215" t="s">
         <v>13</v>
       </c>
       <c r="D215" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E215" t="s">
         <v>22</v>
@@ -9223,7 +9218,7 @@
         <v>2</v>
       </c>
       <c r="H215" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I215">
         <v>10016472295</v>
@@ -9238,18 +9233,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C216" t="s">
         <v>2</v>
       </c>
       <c r="D216" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E216" s="1">
         <v>45292</v>
@@ -9276,52 +9271,52 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C217" t="s">
         <v>13</v>
       </c>
       <c r="D217" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G217">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C218" t="s">
         <v>2</v>
       </c>
       <c r="D218" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G218">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C219" t="s">
         <v>13</v>
       </c>
       <c r="D219" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E219" s="1">
         <v>45292</v>
@@ -9333,33 +9328,33 @@
         <v>19</v>
       </c>
       <c r="H219" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I219">
         <v>4518605337</v>
       </c>
       <c r="J219" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K219" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N219" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C220" t="s">
         <v>13</v>
       </c>
       <c r="D220" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E220" t="s">
         <v>61</v>
@@ -9371,50 +9366,50 @@
         <v>12</v>
       </c>
       <c r="H220" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I220">
         <v>4564281974</v>
       </c>
       <c r="J220" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K220" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N220" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C221" t="s">
         <v>2</v>
       </c>
       <c r="D221" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G221">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C222" t="s">
         <v>13</v>
       </c>
       <c r="D222" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E222" s="1">
         <v>45292</v>
@@ -9426,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="H222" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I222">
         <v>1209692546</v>
@@ -9438,27 +9433,27 @@
         <v>6</v>
       </c>
       <c r="L222" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M222" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N222" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C223" t="s">
         <v>13</v>
       </c>
       <c r="D223" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E223" s="1">
         <v>45352</v>
@@ -9470,7 +9465,7 @@
         <v>1</v>
       </c>
       <c r="H223" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I223">
         <v>3361343199</v>
@@ -9482,27 +9477,27 @@
         <v>6</v>
       </c>
       <c r="L223" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M223" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N223" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C224" t="s">
         <v>13</v>
       </c>
       <c r="D224" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E224" s="1">
         <v>45383</v>
@@ -9514,7 +9509,7 @@
         <v>13</v>
       </c>
       <c r="H224" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I224">
         <v>1209692546</v>
@@ -9526,27 +9521,27 @@
         <v>6</v>
       </c>
       <c r="L224" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M224" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N224" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C225" t="s">
         <v>13</v>
       </c>
       <c r="D225" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E225" t="s">
         <v>60</v>
@@ -9558,7 +9553,7 @@
         <v>3</v>
       </c>
       <c r="H225" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I225">
         <v>3030608765</v>
@@ -9570,27 +9565,27 @@
         <v>6</v>
       </c>
       <c r="L225" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M225" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N225" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C226" t="s">
         <v>13</v>
       </c>
       <c r="D226" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E226" t="s">
         <v>16</v>
@@ -9602,7 +9597,7 @@
         <v>10</v>
       </c>
       <c r="H226" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I226">
         <v>3030608765</v>
@@ -9614,44 +9609,44 @@
         <v>6</v>
       </c>
       <c r="L226" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M226" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N226" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C227" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D227" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G227">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C228" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D228" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E228" s="1">
         <v>45292</v>
@@ -9663,7 +9658,7 @@
         <v>11</v>
       </c>
       <c r="H228" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I228">
         <v>1160736815</v>
@@ -9675,24 +9670,24 @@
         <v>41</v>
       </c>
       <c r="M228" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="N228" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C229" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D229" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E229" t="s">
         <v>45</v>
@@ -9704,7 +9699,7 @@
         <v>3</v>
       </c>
       <c r="H229" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I229">
         <v>4216994696</v>
@@ -9713,58 +9708,58 @@
         <v>18</v>
       </c>
       <c r="K229" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N229" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C230" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D230" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G230">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C231" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D231" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G231">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C232" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D232" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E232" t="s">
         <v>9</v>
@@ -9776,7 +9771,7 @@
         <v>2</v>
       </c>
       <c r="H232" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I232">
         <v>10022168008</v>
@@ -9785,24 +9780,24 @@
         <v>18</v>
       </c>
       <c r="K232" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N232" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C233" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D233" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E233" s="1">
         <v>45292</v>
@@ -9814,7 +9809,7 @@
         <v>31</v>
       </c>
       <c r="H233" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I233">
         <v>4733771572</v>
@@ -9829,18 +9824,18 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C234" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D234" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E234" s="1">
         <v>45444</v>
@@ -9852,7 +9847,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I234">
         <v>4106220072</v>
@@ -9867,18 +9862,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C235" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D235" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E235" s="1">
         <v>45292</v>
@@ -9890,7 +9885,7 @@
         <v>31</v>
       </c>
       <c r="H235" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I235">
         <v>3796737426</v>
@@ -9905,18 +9900,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C236" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D236" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E236" t="s">
         <v>60</v>
@@ -9928,7 +9923,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I236">
         <v>831579324</v>
@@ -9943,18 +9938,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C237" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D237" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E237" t="s">
         <v>16</v>
@@ -9966,7 +9961,7 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I237">
         <v>831579324</v>
@@ -9981,18 +9976,18 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C238" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D238" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E238" t="s">
         <v>22</v>
@@ -10004,7 +9999,7 @@
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I238">
         <v>3891750870</v>
@@ -10019,21 +10014,21 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C239" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D239" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E239" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F239" t="s">
         <v>61</v>
@@ -10051,24 +10046,24 @@
         <v>18</v>
       </c>
       <c r="K239" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N239" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C240" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D240" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E240" s="1">
         <v>45444</v>
@@ -10089,24 +10084,24 @@
         <v>18</v>
       </c>
       <c r="K240" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N240" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C241" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D241" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E241" t="s">
         <v>23</v>
@@ -10118,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="H241" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I241">
         <v>3408128574</v>
@@ -10127,24 +10122,24 @@
         <v>18</v>
       </c>
       <c r="K241" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N241" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C242" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D242" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E242" s="1">
         <v>45292</v>
@@ -10156,7 +10151,7 @@
         <v>31</v>
       </c>
       <c r="H242" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I242">
         <v>4268014205</v>
@@ -10171,18 +10166,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C243" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D243" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E243" s="1">
         <v>45292</v>
@@ -10194,7 +10189,7 @@
         <v>3</v>
       </c>
       <c r="H243" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I243">
         <v>4120928022</v>
@@ -10203,24 +10198,24 @@
         <v>18</v>
       </c>
       <c r="K243" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N243" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C244" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D244" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E244" s="1">
         <v>45505</v>
@@ -10232,7 +10227,7 @@
         <v>4</v>
       </c>
       <c r="H244" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I244">
         <v>4120928022</v>
@@ -10241,24 +10236,24 @@
         <v>18</v>
       </c>
       <c r="K244" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N244" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C245" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D245" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E245" s="1">
         <v>45292</v>
@@ -10279,24 +10274,24 @@
         <v>18</v>
       </c>
       <c r="K245" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N245" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C246" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D246" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E246" t="s">
         <v>28</v>
@@ -10308,7 +10303,7 @@
         <v>9</v>
       </c>
       <c r="H246" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I246">
         <v>10014874277</v>
@@ -10317,24 +10312,24 @@
         <v>18</v>
       </c>
       <c r="K246" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N246" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C247" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D247" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E247" s="1">
         <v>45444</v>
@@ -10346,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I247">
         <v>100032854261</v>
@@ -10361,18 +10356,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C248" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D248" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E248" t="s">
         <v>23</v>
@@ -10384,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="H248" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I248">
         <v>100032854261</v>
@@ -10399,18 +10394,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C249" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D249" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E249" t="s">
         <v>40</v>
@@ -10422,7 +10417,7 @@
         <v>1</v>
       </c>
       <c r="H249" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I249">
         <v>10021099867</v>
@@ -10437,18 +10432,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C250" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D250" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E250" t="s">
         <v>42</v>
@@ -10460,7 +10455,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I250">
         <v>10015943102</v>
@@ -10475,18 +10470,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C251" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D251" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E251" t="s">
         <v>28</v>
@@ -10498,7 +10493,7 @@
         <v>3</v>
       </c>
       <c r="H251" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I251">
         <v>10015943102</v>
@@ -10516,18 +10511,18 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C252" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D252" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E252" s="1">
         <v>45323</v>
@@ -10539,7 +10534,7 @@
         <v>4</v>
       </c>
       <c r="H252" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I252">
         <v>10015943102</v>
@@ -10554,18 +10549,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C253" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D253" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E253" s="1">
         <v>45444</v>
@@ -10577,7 +10572,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I253">
         <v>831579324</v>
@@ -10586,24 +10581,24 @@
         <v>18</v>
       </c>
       <c r="K253" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N253" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C254" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D254" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E254" t="s">
         <v>23</v>
@@ -10615,7 +10610,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I254">
         <v>831579324</v>
@@ -10624,24 +10619,24 @@
         <v>18</v>
       </c>
       <c r="K254" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N254" s="1">
         <v>45628</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C255" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D255" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E255" s="1">
         <v>45444</v>
@@ -10653,7 +10648,7 @@
         <v>6</v>
       </c>
       <c r="H255" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I255">
         <v>10021099867</v>
@@ -10668,18 +10663,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C256" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D256" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E256" s="1">
         <v>45627</v>
@@ -10691,7 +10686,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I256">
         <v>10021099867</v>
@@ -10700,24 +10695,24 @@
         <v>18</v>
       </c>
       <c r="K256" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N256" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C257" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D257" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E257" t="s">
         <v>42</v>
@@ -10729,7 +10724,7 @@
         <v>2</v>
       </c>
       <c r="H257" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I257">
         <v>10021099867</v>
@@ -10744,18 +10739,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C258" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D258" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E258" t="s">
         <v>8</v>
@@ -10767,7 +10762,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I258">
         <v>10021099867</v>
@@ -10782,18 +10777,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C259" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D259" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E259" t="s">
         <v>28</v>
@@ -10805,7 +10800,7 @@
         <v>3</v>
       </c>
       <c r="H259" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I259">
         <v>10021099867</v>
@@ -10820,24 +10815,24 @@
         <v>3</v>
       </c>
       <c r="M259" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="N259" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C260" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D260" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E260" t="s">
         <v>23</v>
@@ -10849,7 +10844,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I260">
         <v>10021099867</v>
@@ -10870,18 +10865,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C261" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D261" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E261" t="s">
         <v>46</v>
@@ -10893,7 +10888,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I261">
         <v>10021099867</v>
@@ -10914,18 +10909,18 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C262" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D262" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E262" s="1">
         <v>45627</v>
@@ -10937,7 +10932,7 @@
         <v>2</v>
       </c>
       <c r="H262" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I262">
         <v>831579324</v>
@@ -10946,36 +10941,36 @@
         <v>18</v>
       </c>
       <c r="K262" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N262" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C263" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D263" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E263" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F263" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G263">
         <v>1</v>
       </c>
       <c r="H263" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I263">
         <v>831579324</v>
@@ -10984,24 +10979,24 @@
         <v>18</v>
       </c>
       <c r="K263" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N263" s="1">
         <v>45628</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C264" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D264" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E264" t="s">
         <v>22</v>
@@ -11013,7 +11008,7 @@
         <v>1</v>
       </c>
       <c r="H264" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I264">
         <v>831579324</v>
@@ -11022,24 +11017,24 @@
         <v>18</v>
       </c>
       <c r="K264" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N264" s="1">
         <v>45628</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C265" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D265" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E265" s="1">
         <v>45292</v>
@@ -11051,7 +11046,7 @@
         <v>19</v>
       </c>
       <c r="H265" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I265">
         <v>10009918168</v>
@@ -11063,30 +11058,30 @@
         <v>6</v>
       </c>
       <c r="L265" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M265" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N265" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" t="s">
+        <v>360</v>
+      </c>
+      <c r="C266" t="s">
+        <v>317</v>
+      </c>
+      <c r="D266" t="s">
+        <v>353</v>
+      </c>
+      <c r="E266" t="s">
         <v>364</v>
-      </c>
-      <c r="C266" t="s">
-        <v>321</v>
-      </c>
-      <c r="D266" t="s">
-        <v>357</v>
-      </c>
-      <c r="E266" t="s">
-        <v>368</v>
       </c>
       <c r="F266" t="s">
         <v>10</v>
@@ -11095,7 +11090,7 @@
         <v>11</v>
       </c>
       <c r="H266" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I266">
         <v>10009918168</v>
@@ -11107,27 +11102,27 @@
         <v>6</v>
       </c>
       <c r="L266" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M266" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N266" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C267" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D267" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E267" t="s">
         <v>40</v>
@@ -11139,7 +11134,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I267">
         <v>10031071945</v>
@@ -11151,27 +11146,27 @@
         <v>6</v>
       </c>
       <c r="L267" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M267" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="N267" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C268" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D268" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E268" t="s">
         <v>42</v>
@@ -11195,27 +11190,27 @@
         <v>6</v>
       </c>
       <c r="L268" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M268" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N268" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C269" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D269" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E269" t="s">
         <v>23</v>
@@ -11227,7 +11222,7 @@
         <v>1</v>
       </c>
       <c r="H269" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I269">
         <v>10015943102</v>
@@ -11242,18 +11237,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C270" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D270" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E270" t="s">
         <v>46</v>
@@ -11265,7 +11260,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I270">
         <v>10015943102</v>
@@ -11280,18 +11275,18 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C271" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D271" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E271" s="1">
         <v>45292</v>
@@ -11303,7 +11298,7 @@
         <v>31</v>
       </c>
       <c r="H271" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I271">
         <v>4128748516</v>
@@ -11318,18 +11313,18 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C272" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D272" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E272" s="1">
         <v>45292</v>
@@ -11341,7 +11336,7 @@
         <v>8</v>
       </c>
       <c r="H272" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I272">
         <v>3030608765</v>
@@ -11353,24 +11348,24 @@
         <v>41</v>
       </c>
       <c r="M272" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="N272" s="1">
         <v>45293</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C273" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D273" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E273" t="s">
         <v>8</v>
@@ -11382,7 +11377,7 @@
         <v>13</v>
       </c>
       <c r="H273" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I273">
         <v>10004504030</v>
@@ -11394,27 +11389,27 @@
         <v>6</v>
       </c>
       <c r="L273" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M273" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="N273" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C274" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D274" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E274" s="1">
         <v>45292</v>
@@ -11426,7 +11421,7 @@
         <v>3</v>
       </c>
       <c r="H274" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I274">
         <v>10004504030</v>
@@ -11438,27 +11433,27 @@
         <v>6</v>
       </c>
       <c r="L274" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M274" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N274" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C275" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D275" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E275" s="1">
         <v>45536</v>
@@ -11470,7 +11465,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I275">
         <v>10004504030</v>
@@ -11482,44 +11477,44 @@
         <v>6</v>
       </c>
       <c r="L275" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M275" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N275" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C276" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D276" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C277" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D277" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E277" s="1">
         <v>45627</v>
@@ -11531,7 +11526,7 @@
         <v>6</v>
       </c>
       <c r="H277" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I277">
         <v>1160736815</v>
@@ -11543,27 +11538,27 @@
         <v>6</v>
       </c>
       <c r="L277" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N277" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C278" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D278" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E278" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F278" t="s">
         <v>8</v>
@@ -11572,7 +11567,7 @@
         <v>2</v>
       </c>
       <c r="H278" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I278">
         <v>1160736815</v>
@@ -11581,24 +11576,24 @@
         <v>18</v>
       </c>
       <c r="K278" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N278" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C279" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D279" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E279" t="s">
         <v>28</v>
@@ -11610,7 +11605,7 @@
         <v>3</v>
       </c>
       <c r="H279" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I279">
         <v>1160736815</v>
@@ -11622,24 +11617,24 @@
         <v>6</v>
       </c>
       <c r="L279" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N279" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C280" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D280" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E280" t="s">
         <v>23</v>
@@ -11651,7 +11646,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I280">
         <v>1160736815</v>
@@ -11666,18 +11661,18 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C281" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D281" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E281" t="s">
         <v>10</v>
@@ -11689,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="H281" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I281">
         <v>1160736815</v>
@@ -11704,30 +11699,30 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C282" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D282" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E282" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F282" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G282">
         <v>1</v>
       </c>
       <c r="H282" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I282">
         <v>3854632403</v>
@@ -11736,30 +11731,40 @@
         <v>18</v>
       </c>
       <c r="K282" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N282" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C283" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D283" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G283">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D283" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Jari Usilampatti"/>
+        <filter val="Kappalur BO"/>
+        <filter val="Urappanur BO"/>
+        <filter val="Velambur BO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>